--- a/SuppXLS/Scen_B_SYS_MaxGrowthRates.xlsx
+++ b/SuppXLS/Scen_B_SYS_MaxGrowthRates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BSuleimenov\Documents\GitHub\times-ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725896D-244B-4F2C-AF88-37BEDB7B1990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1098FE90-3470-47F8-A549-422EFCC25A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{39DC52AD-7AD8-48BE-9D85-AA1C40791A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -6469,17 +6469,17 @@
       <selection activeCell="B26" sqref="B26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="6" width="14.21875" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="10" width="8.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -9327,35 +9327,35 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" customWidth="1"/>
-    <col min="25" max="25" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30">
@@ -9826,7 +9826,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="22" t="s">
         <v>56</v>
       </c>
@@ -10086,19 +10086,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89417C8F-9D07-4311-9372-0B0C534E50C4}">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="B21" s="47" t="s">
         <v>216</v>
       </c>
@@ -10661,16 +10661,16 @@
       <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26">
@@ -11581,9 +11581,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
@@ -12290,20 +12290,20 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
@@ -13074,7 +13074,7 @@
       </c>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="2:8" ht="15" thickBot="1">
+    <row r="36" spans="2:8" ht="15.75" thickBot="1">
       <c r="B36" s="47" t="s">
         <v>216</v>
       </c>
@@ -13132,19 +13132,19 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13537,7 +13537,7 @@
       <c r="B22" s="45"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
       <c r="B23" s="47" t="s">
         <v>216</v>
       </c>
@@ -13594,19 +13594,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.21875" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
@@ -13802,26 +13802,26 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P68"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="L6" s="16">
         <f>-$B$59*L29/1000</f>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="L7" s="16">
         <f t="shared" ref="L7:L11" si="2">-$B$59*L30/1000</f>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M7" s="2">
         <v>5</v>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="L8" s="16">
         <f t="shared" si="2"/>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
@@ -14074,7 +14074,7 @@
       </c>
       <c r="L9" s="55">
         <f t="shared" si="2"/>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M9" s="53">
         <v>5</v>
@@ -14115,7 +14115,7 @@
       </c>
       <c r="L10" s="55">
         <f t="shared" si="2"/>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M10" s="53">
         <v>5</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="L11" s="19">
         <f t="shared" si="2"/>
-        <v>-18.168149999999997</v>
+        <v>-24.2242</v>
       </c>
       <c r="M11" s="18">
         <v>5</v>
@@ -14197,7 +14197,7 @@
       </c>
       <c r="L12" s="16">
         <f>-$B$58*L35/1000</f>
-        <v>-2.4808499999999998</v>
+        <v>-3.3078000000000003</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="L13" s="16">
         <f>-$B$58*L36/1000</f>
-        <v>-2.4808499999999998</v>
+        <v>-3.3078000000000003</v>
       </c>
       <c r="M13" s="2">
         <v>5</v>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="L14" s="16">
         <f>-$B$58*L37/1000</f>
-        <v>-2.4808499999999998</v>
+        <v>-3.3078000000000003</v>
       </c>
       <c r="M14" s="2">
         <v>5</v>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="L15" s="19">
         <f>-$B$58*L38/1000</f>
-        <v>-2.4808499999999998</v>
+        <v>-3.3078000000000003</v>
       </c>
       <c r="M15" s="18">
         <v>5</v>
@@ -14402,7 +14402,7 @@
       </c>
       <c r="L17" s="16">
         <f>-$B$57*L40/1000</f>
-        <v>-7.9500000000000001E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="M17" s="2">
         <v>5</v>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="L18" s="16">
         <f>-$B$57*L41/1000</f>
-        <v>-7.9500000000000001E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="M18" s="2">
         <v>5</v>
@@ -14484,7 +14484,7 @@
       </c>
       <c r="L19" s="16">
         <f>-$B$57*L42/1000</f>
-        <v>-7.9500000000000001E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="M19" s="2">
         <v>5</v>
@@ -14525,7 +14525,7 @@
       </c>
       <c r="L20" s="19">
         <f>-$B$57*L43/1000</f>
-        <v>-7.9500000000000001E-2</v>
+        <v>-0.106</v>
       </c>
       <c r="M20" s="18">
         <v>5</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="L22" s="16">
         <f>-$B$56*L45/1000</f>
-        <v>-0.22769999999999999</v>
+        <v>-0.30360000000000004</v>
       </c>
       <c r="M22" s="2">
         <v>5</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="L23" s="16">
         <f>-$B$56*L46/1000</f>
-        <v>-0.22769999999999999</v>
+        <v>-0.30360000000000004</v>
       </c>
       <c r="M23" s="2">
         <v>5</v>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="L24" s="16">
         <f>-$B$56*L47/1000</f>
-        <v>-0.22769999999999999</v>
+        <v>-0.30360000000000004</v>
       </c>
       <c r="M24" s="2">
         <v>5</v>
@@ -14731,7 +14731,7 @@
       </c>
       <c r="L25" s="19">
         <f>-$B$56*L48/1000</f>
-        <v>-0.22769999999999999</v>
+        <v>-0.30360000000000004</v>
       </c>
       <c r="M25" s="18">
         <v>5</v>
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -14786,7 +14786,7 @@
         <v>0.8</v>
       </c>
       <c r="L30" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -14811,7 +14811,7 @@
         <v>0.5</v>
       </c>
       <c r="L31" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -14840,8 +14840,8 @@
       <c r="K32" s="52">
         <v>0.2</v>
       </c>
-      <c r="L32" s="52">
-        <v>0.15</v>
+      <c r="L32" s="11">
+        <v>0.2</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -14868,8 +14868,8 @@
       <c r="K33" s="52">
         <v>0.2</v>
       </c>
-      <c r="L33" s="52">
-        <v>0.15</v>
+      <c r="L33" s="11">
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -14897,7 +14897,7 @@
         <v>0.5</v>
       </c>
       <c r="L34" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -14925,7 +14925,7 @@
         <v>0.8</v>
       </c>
       <c r="L35" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -14953,7 +14953,7 @@
         <v>0.8</v>
       </c>
       <c r="L36" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -14981,7 +14981,7 @@
         <v>0.3</v>
       </c>
       <c r="L37" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -15008,7 +15008,7 @@
         <v>0.3</v>
       </c>
       <c r="L38" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -15062,7 +15062,7 @@
         <v>0.5</v>
       </c>
       <c r="L40" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -15090,7 +15090,7 @@
         <v>0.5</v>
       </c>
       <c r="L41" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -15107,7 +15107,7 @@
         <v>0.5</v>
       </c>
       <c r="L42" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -15121,7 +15121,7 @@
         <v>0.5</v>
       </c>
       <c r="L43" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -15149,7 +15149,7 @@
         <v>0.5</v>
       </c>
       <c r="L45" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -15163,7 +15163,7 @@
         <v>0.5</v>
       </c>
       <c r="L46" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -15177,7 +15177,7 @@
         <v>0.5</v>
       </c>
       <c r="L47" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -15191,7 +15191,7 @@
         <v>0.5</v>
       </c>
       <c r="L48" s="11">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -15789,18 +15789,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15823,18 +15823,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB3709B4-63F5-4DFC-B992-07B9DE433FAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62402F5C-4915-4658-8F60-3A11655231DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>